--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T11:38:34+00:00</t>
+    <t>2022-08-31T09:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:33:23+00:00</t>
+    <t>2022-08-31T09:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:56:11+00:00</t>
+    <t>2022-08-31T10:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:36:06+00:00</t>
+    <t>2022-08-31T12:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:42:43+00:00</t>
+    <t>2022-08-31T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:41:46+00:00</t>
+    <t>2022-08-31T20:08:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:08:39+00:00</t>
+    <t>2022-08-31T20:28:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:28:40+00:00</t>
+    <t>2022-08-31T20:44:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:44:20+00:00</t>
+    <t>2022-08-31T20:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:56:30+00:00</t>
+    <t>2022-09-03T19:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T19:58:19+00:00</t>
+    <t>2022-09-03T20:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T20:14:05+00:00</t>
+    <t>2022-09-03T21:16:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:16:47+00:00</t>
+    <t>2022-09-03T21:25:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:25:02+00:00</t>
+    <t>2022-09-04T09:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T09:55:59+00:00</t>
+    <t>2022-09-04T13:23:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:23:45+00:00</t>
+    <t>2022-09-04T13:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:33:44+00:00</t>
+    <t>2022-09-04T13:49:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:49:49+00:00</t>
+    <t>2022-09-04T14:40:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T14:40:23+00:00</t>
+    <t>2022-09-04T15:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T15:15:31+00:00</t>
+    <t>2022-09-04T15:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T15:19:44+00:00</t>
+    <t>2022-09-04T16:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$34</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="337">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T16:44:58+00:00</t>
+    <t>2022-09-04T16:52:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,34 +449,21 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>referenceLab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/covid-19reference-lab}
+    <t>covid19SpecimenForwarded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/covid19-specimen-forwarded}
 </t>
   </si>
   <si>
-    <t>Covid19 Reference Lab</t>
-  </si>
-  <si>
-    <t>Covid19 Reference Lab sample sent to</t>
+    <t>Covid19 Specimen Forwarded</t>
+  </si>
+  <si>
+    <t>Covid19 Specimen forwarded to reference lab</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>covid19SpecimenForwarded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/covid19-specimen-forwarded}
-</t>
-  </si>
-  <si>
-    <t>Covid19 Specimen Forwarded</t>
-  </si>
-  <si>
-    <t>Covid19 Specimen forwarded to reference lab</t>
   </si>
   <si>
     <t>DiagnosticReport.modifierExtension</t>
@@ -1406,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2469,7 +2456,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>87</v>
@@ -2568,34 +2555,32 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>144</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="I11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>146</v>
@@ -2603,8 +2588,12 @@
       <c r="L11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2652,7 +2641,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2661,7 +2650,7 @@
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>138</v>
@@ -2673,50 +2662,50 @@
         <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I12" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -2765,7 +2754,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2777,59 +2766,59 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
@@ -2878,7 +2867,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2893,56 +2882,54 @@
         <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
@@ -2967,13 +2954,13 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
@@ -2991,13 +2978,13 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
@@ -3006,55 +2993,55 @@
         <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3078,13 +3065,13 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
@@ -3102,13 +3089,13 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
@@ -3117,32 +3104,32 @@
         <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -3154,17 +3141,15 @@
         <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -3189,37 +3174,37 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="AF16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
@@ -3228,25 +3213,25 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3256,7 +3241,7 @@
         <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3265,16 +3250,18 @@
         <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3298,13 +3285,13 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>78</v>
@@ -3322,10 +3309,10 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>87</v>
@@ -3337,25 +3324,25 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3374,17 +3361,19 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="N18" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
@@ -3433,7 +3422,7 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3448,35 +3437,35 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3485,19 +3474,19 @@
         <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>78</v>
@@ -3546,7 +3535,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3561,25 +3550,25 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3598,19 +3587,19 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>78</v>
@@ -3659,7 +3648,7 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -3674,32 +3663,32 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -3711,19 +3700,19 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>78</v>
@@ -3772,13 +3761,13 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
@@ -3787,25 +3776,25 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3824,19 +3813,19 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>78</v>
@@ -3885,7 +3874,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -3900,56 +3889,56 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -3998,7 +3987,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4013,35 +4002,35 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4050,19 +4039,19 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -4111,7 +4100,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4129,10 +4118,10 @@
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4140,11 +4129,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4163,20 +4152,18 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4224,7 +4211,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4242,10 +4229,10 @@
         <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4253,11 +4240,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4273,21 +4260,21 @@
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4335,7 +4322,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4353,10 +4340,10 @@
         <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4364,18 +4351,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -4384,21 +4371,19 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>291</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4446,28 +4431,28 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4475,18 +4460,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -4498,15 +4483,17 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -4555,19 +4542,19 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -4576,7 +4563,7 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -4588,7 +4575,7 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>149</v>
+        <v>302</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4601,24 +4588,26 @@
         <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
       </c>
@@ -4666,7 +4655,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4687,7 +4676,7 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -4695,30 +4684,30 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>307</v>
@@ -4727,10 +4716,10 @@
         <v>308</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>152</v>
+        <v>309</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>153</v>
+        <v>310</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>78</v>
@@ -4779,19 +4768,19 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -4800,7 +4789,7 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4808,7 +4797,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4816,7 +4805,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -4828,23 +4817,19 @@
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>78</v>
       </c>
@@ -4892,10 +4877,10 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>87</v>
@@ -4913,7 +4898,7 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -4921,15 +4906,15 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -4941,19 +4926,21 @@
         <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>317</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5001,10 +4988,10 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -5019,10 +5006,10 @@
         <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5030,18 +5017,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -5053,18 +5040,16 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>325</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5088,13 +5073,13 @@
         <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>78</v>
@@ -5112,13 +5097,13 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
@@ -5130,10 +5115,10 @@
         <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5141,7 +5126,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5164,16 +5149,20 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>188</v>
+        <v>331</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5197,13 +5186,13 @@
         <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>78</v>
@@ -5221,7 +5210,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5239,130 +5228,17 @@
         <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM35">
+  <autoFilter ref="A1:AM34">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5372,7 +5248,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI34">
+  <conditionalFormatting sqref="A2:AI33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T16:52:24+00:00</t>
+    <t>2022-09-04T17:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-covid19-specimen-collection.xlsx
+++ b/StructureDefinition-covid19-specimen-collection.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T17:03:18+00:00</t>
+    <t>2022-09-04T18:26:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
